--- a/result/Auswertung.xlsx
+++ b/result/Auswertung.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\main\BeLL\Bell_ki_zum_videoschnitt\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D83EE55-A63C-42CC-B9D8-0EB0101E9311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA5DAE6-8758-4CD5-B01C-08D3DB2FAB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94D06B2F-F51C-4BEE-AFA9-71CBD81405C1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{94D06B2F-F51C-4BEE-AFA9-71CBD81405C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>v8</t>
   </si>
@@ -90,6 +91,12 @@
   </si>
   <si>
     <t>Llama</t>
+  </si>
+  <si>
+    <t>Datenpunkte</t>
+  </si>
+  <si>
+    <t>v6</t>
   </si>
 </sst>
 </file>
@@ -152,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,9 +168,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -177,6 +181,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1027,7 +1035,522 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Punktzahl(Datenpunkte)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11694544014570155"/>
+          <c:y val="0.16961445612483117"/>
+          <c:w val="0.85214129483814527"/>
+          <c:h val="0.72125801983085447"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$Q$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Punktzahl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$P$22:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$Q$22:$Q$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE36-4369-BF3F-3FD3E286E09B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1026893551"/>
+        <c:axId val="1026885391"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1026893551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Datenpunkte</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1026885391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1026885391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Punktzahl</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1026893551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1570,6 +2093,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1603,6 +2642,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>157160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{207B4F0F-0E70-E871-ABF8-A27D891F10F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1928,665 +3003,709 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F18E88-8298-48B0-A965-F4E33A3268C6}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="9" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="1"/>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="9" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="7" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="6" t="s">
         <v>14</v>
       </c>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>85.790999999999997</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>13.55</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>11.26</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>0</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <f>AVERAGE(B2:F2)</f>
         <v>22.120200000000001</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>77.549000000000007</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>57.209000000000003</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>58.76</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>68.427999999999997</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <v>7.681</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <f>AVERAGE(I2:M2)</f>
         <v>53.925400000000003</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="8">
-        <f>AVERAGE(G2,N2)</f>
+      <c r="R2" s="7">
+        <f t="shared" ref="R2:R13" si="0">AVERAGE(G2,N2)</f>
         <v>38.022800000000004</v>
       </c>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>75.531999999999996</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>46.473999999999997</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>49.436999999999998</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>0</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>8.2170000000000005</v>
       </c>
-      <c r="G3" s="8">
-        <f t="shared" ref="G3:G13" si="0">AVERAGE(B3:F3)</f>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G13" si="1">AVERAGE(B3:F3)</f>
         <v>35.932000000000002</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>66.177999999999997</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>60.302</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>88.805000000000007</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>64.92</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <v>85.114999999999995</v>
       </c>
-      <c r="N3" s="8">
-        <f t="shared" ref="N3:N13" si="1">AVERAGE(I3:M3)</f>
+      <c r="N3" s="7">
+        <f t="shared" ref="N3:N13" si="2">AVERAGE(I3:M3)</f>
         <v>73.063999999999993</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="8">
-        <f>AVERAGE(G3,N3)</f>
+      <c r="R3" s="7">
+        <f t="shared" si="0"/>
         <v>54.497999999999998</v>
       </c>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>74.129000000000005</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>0.161</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>48.61</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>0</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>6.7489999999999997</v>
       </c>
-      <c r="G4" s="8">
-        <f t="shared" si="0"/>
+      <c r="G4" s="7">
+        <f t="shared" si="1"/>
         <v>25.9298</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>92.394999999999996</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>53.561999999999998</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>97.471999999999994</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>56.863999999999997</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <v>86.805999999999997</v>
       </c>
-      <c r="N4" s="8">
-        <f t="shared" si="1"/>
+      <c r="N4" s="7">
+        <f t="shared" si="2"/>
         <v>77.419799999999981</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="8">
-        <f>AVERAGE(G4,N4)</f>
+      <c r="R4" s="7">
+        <f t="shared" si="0"/>
         <v>51.674799999999991</v>
       </c>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>44.418999999999997</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>97.807000000000002</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>89.260999999999996</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>0</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>0</v>
       </c>
-      <c r="G5" s="8">
-        <f t="shared" si="0"/>
+      <c r="G5" s="7">
+        <f t="shared" si="1"/>
         <v>46.297399999999996</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>92.575999999999993</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>72.358000000000004</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>80.989000000000004</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>78.7</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>68.42</v>
       </c>
-      <c r="N5" s="8">
-        <f t="shared" si="1"/>
+      <c r="N5" s="7">
+        <f t="shared" si="2"/>
         <v>78.608599999999996</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="8">
-        <f>AVERAGE(G5,N5)</f>
+      <c r="R5" s="7">
+        <f t="shared" si="0"/>
         <v>62.452999999999996</v>
       </c>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>0</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>0.107</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>81.400000000000006</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>0</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>0</v>
       </c>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
+      <c r="G6" s="7">
+        <f t="shared" si="1"/>
         <v>16.301400000000001</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>87.747</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>71.695999999999998</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>88.805000000000007</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>69.674999999999997</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <v>72.188000000000002</v>
       </c>
-      <c r="N6" s="8">
-        <f t="shared" si="1"/>
+      <c r="N6" s="7">
+        <f t="shared" si="2"/>
         <v>78.022199999999998</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="8">
-        <f>AVERAGE(G6,N6)</f>
+      <c r="R6" s="7">
+        <f t="shared" si="0"/>
         <v>47.161799999999999</v>
       </c>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>44.954999999999998</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>98.825999999999993</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>49.042000000000002</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>0</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>93.912999999999997</v>
       </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
+      <c r="G7" s="7">
+        <f t="shared" si="1"/>
         <v>57.347200000000001</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8">
+      <c r="H7" s="4"/>
+      <c r="I7" s="7">
         <v>84.584999999999994</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>72.525999999999996</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>88.805000000000007</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>76.507000000000005</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>65.542000000000002</v>
       </c>
-      <c r="N7" s="8">
-        <f t="shared" si="1"/>
+      <c r="N7" s="7">
+        <f t="shared" si="2"/>
         <v>77.593000000000004</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="8">
-        <f>AVERAGE(G7,N7)</f>
+      <c r="R7" s="7">
+        <f t="shared" si="0"/>
         <v>67.470100000000002</v>
       </c>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>80.844999999999999</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>4.6390000000000002</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>0</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>57.216000000000001</v>
       </c>
-      <c r="G8" s="8">
-        <f t="shared" si="0"/>
+      <c r="G8" s="7">
+        <f t="shared" si="1"/>
         <v>28.54</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>90.513999999999996</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>100</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>88.805000000000007</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>98.156000000000006</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>86.805999999999997</v>
       </c>
-      <c r="N8" s="8">
-        <f t="shared" si="1"/>
+      <c r="N8" s="7">
+        <f t="shared" si="2"/>
         <v>92.856200000000001</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="8">
-        <f>AVERAGE(G8,N8)</f>
+      <c r="R8" s="7">
+        <f t="shared" si="0"/>
         <v>60.698099999999997</v>
       </c>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>68.051000000000002</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>98.825999999999993</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>91.382000000000005</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>0</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>0</v>
       </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
+      <c r="G9" s="7">
+        <f t="shared" si="1"/>
         <v>51.651800000000001</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>84.584999999999994</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>78.361000000000004</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>88.805000000000007</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>72.516000000000005</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>88.912000000000006</v>
       </c>
-      <c r="N9" s="8">
-        <f t="shared" si="1"/>
+      <c r="N9" s="7">
+        <f t="shared" si="2"/>
         <v>82.635799999999989</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="8">
-        <f>AVERAGE(G9,N9)</f>
+      <c r="R9" s="7">
+        <f t="shared" si="0"/>
         <v>67.143799999999999</v>
       </c>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>86.463999999999999</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>91.915999999999997</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>89.694999999999993</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>0</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>46</v>
       </c>
-      <c r="G10" s="8">
-        <f t="shared" si="0"/>
+      <c r="G10" s="7">
+        <f t="shared" si="1"/>
         <v>62.814999999999998</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>86.956999999999994</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>76.960999999999999</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>88.805000000000007</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>0</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <v>72.597999999999999</v>
       </c>
-      <c r="N10" s="8">
-        <f t="shared" si="1"/>
+      <c r="N10" s="7">
+        <f t="shared" si="2"/>
         <v>65.0642</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="8">
-        <f>AVERAGE(G10,N10)</f>
+      <c r="R10" s="7">
+        <f t="shared" si="0"/>
         <v>63.939599999999999</v>
       </c>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>84.049000000000007</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>96.744</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>97.849000000000004</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>0</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>79.564999999999998</v>
       </c>
-      <c r="G11" s="8">
-        <f t="shared" si="0"/>
+      <c r="G11" s="7">
+        <f t="shared" si="1"/>
         <v>71.641400000000004</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>93.015000000000001</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>3.98</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>97.471999999999994</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>0.48499999999999999</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>86.805999999999997</v>
       </c>
-      <c r="N11" s="8">
-        <f t="shared" si="1"/>
+      <c r="N11" s="7">
+        <f t="shared" si="2"/>
         <v>56.351599999999998</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="8">
-        <f>AVERAGE(G11,N11)</f>
+      <c r="R11" s="7">
+        <f t="shared" si="0"/>
         <v>63.996499999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>38.905000000000001</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>32.466999999999999</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>49.417000000000002</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>14.263999999999999</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>8.9809999999999999</v>
       </c>
-      <c r="G12" s="8">
-        <f t="shared" si="0"/>
+      <c r="G12" s="7">
+        <f t="shared" si="1"/>
         <v>28.806799999999999</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>75.555999999999997</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>3.98</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>3.8969999999999998</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>0</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <v>62.106999999999999</v>
       </c>
-      <c r="N12" s="8">
-        <f t="shared" si="1"/>
+      <c r="N12" s="7">
+        <f t="shared" si="2"/>
         <v>29.108000000000004</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="8">
-        <f>AVERAGE(G12,N12)</f>
+      <c r="R12" s="7">
+        <f t="shared" si="0"/>
         <v>28.9574</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>41.530999999999999</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>35.616</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>50.963000000000001</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>12.976000000000001</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>14.536</v>
       </c>
-      <c r="G13" s="8">
-        <f t="shared" si="0"/>
+      <c r="G13" s="7">
+        <f t="shared" si="1"/>
         <v>31.124399999999998</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>94.757000000000005</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>95.548000000000002</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>0</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>4.4710000000000001</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="8">
-        <f t="shared" si="1"/>
+      <c r="N13" s="7">
+        <f t="shared" si="2"/>
         <v>38.955200000000005</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="8">
-        <f>AVERAGE(G13,N13)</f>
+      <c r="R13" s="7">
+        <f t="shared" si="0"/>
         <v>35.0398</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="P14" s="2"/>
       <c r="Q14" s="3"/>
+    </row>
+    <row r="21" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O21" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O22" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="23" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>38.020000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O24" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>54.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
